--- a/鱉蛋對照編號至10月19日.xlsx
+++ b/鱉蛋對照編號至10月19日.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\turtle\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\turtle\turtle\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1305,7 +1305,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
   </numFmts>
@@ -1384,7 +1384,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,14 +1454,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1742,11 +1745,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A318" workbookViewId="0">
-      <selection activeCell="P330" sqref="P330"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2004,13 +2007,13 @@
         <v>27</v>
       </c>
       <c r="C29" s="5"/>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="7"/>
@@ -2018,11 +2021,11 @@
         <v>28</v>
       </c>
       <c r="C30" s="5"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="7"/>
@@ -2030,11 +2033,11 @@
         <v>18</v>
       </c>
       <c r="C31" s="5"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="7"/>
@@ -3061,7 +3064,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6"/>
       <c r="B161" s="4" t="s">
         <v>134</v>
@@ -3070,7 +3073,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="6"/>
       <c r="B162" s="4" t="s">
         <v>135</v>
@@ -3079,7 +3082,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="6"/>
       <c r="B163" s="4" t="s">
         <v>136</v>
@@ -3088,10 +3091,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>137</v>
       </c>
@@ -3102,7 +3105,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6"/>
       <c r="B166" s="4" t="s">
         <v>139</v>
@@ -3110,11 +3113,16 @@
       <c r="C166" s="12">
         <v>64</v>
       </c>
-    </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D166" s="26"/>
+      <c r="E166" s="26"/>
+      <c r="F166" s="26"/>
+      <c r="G166" s="26"/>
+      <c r="H166" s="26"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>140</v>
       </c>
@@ -3125,7 +3133,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6"/>
       <c r="B169" s="4" t="s">
         <v>141</v>
@@ -3134,10 +3142,10 @@
         <v>206</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>142</v>
       </c>
@@ -3148,7 +3156,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6"/>
       <c r="B172" s="4" t="s">
         <v>144</v>
@@ -3157,7 +3165,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6"/>
       <c r="B173" s="4" t="s">
         <v>145</v>
@@ -3166,7 +3174,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6"/>
       <c r="B174" s="4" t="s">
         <v>146</v>
@@ -3175,7 +3183,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6"/>
       <c r="B175" s="4" t="s">
         <v>147</v>
@@ -3184,7 +3192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6"/>
       <c r="B176" s="4" t="s">
         <v>148</v>
@@ -4393,7 +4401,7 @@
       <c r="C321" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D321" s="24" t="s">
+      <c r="D321" s="25" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4405,7 +4413,7 @@
       <c r="C322" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="D322" s="24"/>
+      <c r="D322" s="25"/>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="6"/>
@@ -4415,7 +4423,7 @@
       <c r="C323" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="D323" s="24"/>
+      <c r="D323" s="25"/>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="6"/>
@@ -4425,7 +4433,7 @@
       <c r="C324" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D324" s="24"/>
+      <c r="D324" s="25"/>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
@@ -4507,7 +4515,7 @@
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C335" s="25"/>
+      <c r="C335" s="23"/>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
@@ -4539,7 +4547,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C339" s="25"/>
+      <c r="C339" s="23"/>
     </row>
     <row r="340" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
